--- a/code/results/experiment3/Experiment3-Tables.xlsx
+++ b/code/results/experiment3/Experiment3-Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maarten\Desktop\Afstuderen\thesis_stock_prediction_repo\code\results\experiment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE83BDC-9AC2-49B1-8CE4-3D05A39C70AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE5F6BC-25DE-4B74-AE97-8A3B43CAB4D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,23 @@
     <sheet name="time-lag" sheetId="2" r:id="rId3"/>
     <sheet name="missing-1or1" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="26">
   <si>
     <t>smape_mean</t>
   </si>
@@ -91,10 +102,16 @@
     <t>Microsoft</t>
   </si>
   <si>
-    <t>2-imputations-combined</t>
-  </si>
-  <si>
     <t>WITH QUARTERLY DATA AND EXTRA FEATURES</t>
+  </si>
+  <si>
+    <t>smape mean</t>
+  </si>
+  <si>
+    <t>smape std</t>
+  </si>
+  <si>
+    <t>2 imputations combined</t>
   </si>
 </sst>
 </file>
@@ -519,7 +536,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,22 +572,22 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -578,7 +595,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" s="7">
         <v>1.2342469723280141E-2</v>
@@ -724,7 +741,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C9" s="7">
         <v>1.2502071406406631E-2</v>
@@ -870,7 +887,7 @@
         <v>21</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C15" s="7">
         <v>2.052192911639272E-2</v>
@@ -1013,7 +1030,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1546,7 +1563,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D19"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
